--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UNI\400 level\CS414 - Software Project Management(2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UNI\400 level\CS414 - Software Project Management(2)\Test Automation assignmnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Test Case#</t>
   </si>
@@ -105,21 +105,9 @@
     <t>User Name - admin</t>
   </si>
   <si>
-    <t>Password  - abcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user  unable to log to the system </t>
-  </si>
-  <si>
-    <t>User Name - adom</t>
-  </si>
-  <si>
     <t>The user should be able to logging into the system and view Reports</t>
   </si>
   <si>
-    <t>Click Log in</t>
-  </si>
-  <si>
     <t>The user must be able to log into the system with correct user name and password</t>
   </si>
   <si>
@@ -148,6 +136,33 @@
   </si>
   <si>
     <t>press Log in</t>
+  </si>
+  <si>
+    <t>Log into the System with empty credential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user  unable to log in to the system </t>
+  </si>
+  <si>
+    <t>2. empty username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. empty Password     </t>
+  </si>
+  <si>
+    <t>Password  -</t>
+  </si>
+  <si>
+    <t>Password  - Incorrectpassword</t>
+  </si>
+  <si>
+    <t>User Name - IncorrectUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name </t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -503,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +529,7 @@
     <col min="2" max="2" width="66.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="57.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -549,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -585,7 +600,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -593,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -602,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -629,7 +644,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -637,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -663,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -673,7 +688,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -681,16 +696,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -707,7 +722,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -717,7 +732,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -725,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -737,10 +752,10 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
@@ -761,12 +776,51 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
         <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
